--- a/web/iknit/data/Sirdar.xlsx
+++ b/web/iknit/data/Sirdar.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="14295" windowHeight="7680" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="14295" windowHeight="7680" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="ShadesWithNoLeaflets" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="346">
   <si>
     <t>yarn_code</t>
   </si>
@@ -987,13 +988,79 @@
   </si>
   <si>
     <t>8768</t>
+  </si>
+  <si>
+    <t>DMY-1009</t>
+  </si>
+  <si>
+    <t>F035</t>
+  </si>
+  <si>
+    <t>DMY-1008</t>
+  </si>
+  <si>
+    <t>F095</t>
+  </si>
+  <si>
+    <t>DMY-1007</t>
+  </si>
+  <si>
+    <t>F055</t>
+  </si>
+  <si>
+    <t>DMY-1006</t>
+  </si>
+  <si>
+    <t>F091</t>
+  </si>
+  <si>
+    <t>DMY-1005</t>
+  </si>
+  <si>
+    <t>F060</t>
+  </si>
+  <si>
+    <t>DMY-1004</t>
+  </si>
+  <si>
+    <t>F081</t>
+  </si>
+  <si>
+    <t>DMY-1003</t>
+  </si>
+  <si>
+    <t>F069</t>
+  </si>
+  <si>
+    <t>DMY-1002</t>
+  </si>
+  <si>
+    <t>F118</t>
+  </si>
+  <si>
+    <t>DMY-1001</t>
+  </si>
+  <si>
+    <t>F070</t>
+  </si>
+  <si>
+    <t>DMY-1000</t>
+  </si>
+  <si>
+    <t>F077</t>
+  </si>
+  <si>
+    <t>Dummy Leaflet</t>
+  </si>
+  <si>
+    <t>SQL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1012,12 +1079,36 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
-      <charset val="162"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1077,7 +1168,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1088,6 +1179,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Accent2" xfId="1" builtinId="33"/>
@@ -1096,6 +1190,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1174,6 +1273,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1208,6 +1308,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1383,14 +1484,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D267"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1048576"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="95.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="95.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
@@ -1398,7 +1499,7 @@
     <col min="4" max="4" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1412,7 +1513,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1426,7 +1527,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1440,7 +1541,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1454,7 +1555,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -1468,7 +1569,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -1482,7 +1583,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -1496,7 +1597,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -1510,7 +1611,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -1524,7 +1625,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -1538,7 +1639,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -1552,7 +1653,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -1566,7 +1667,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
@@ -1580,7 +1681,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -1594,7 +1695,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -1608,7 +1709,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -1622,7 +1723,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -1636,7 +1737,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -1650,7 +1751,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -1664,7 +1765,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
@@ -1678,7 +1779,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
@@ -1692,7 +1793,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>35</v>
       </c>
@@ -1706,7 +1807,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
@@ -1720,7 +1821,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>35</v>
       </c>
@@ -1734,7 +1835,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>35</v>
       </c>
@@ -1748,7 +1849,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>41</v>
       </c>
@@ -1762,7 +1863,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>41</v>
       </c>
@@ -1776,7 +1877,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>41</v>
       </c>
@@ -1790,7 +1891,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>41</v>
       </c>
@@ -1804,7 +1905,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>41</v>
       </c>
@@ -1818,7 +1919,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>41</v>
       </c>
@@ -1832,7 +1933,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>41</v>
       </c>
@@ -1846,7 +1947,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>41</v>
       </c>
@@ -1860,7 +1961,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>41</v>
       </c>
@@ -1874,7 +1975,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>41</v>
       </c>
@@ -1888,7 +1989,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
@@ -1902,7 +2003,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>41</v>
       </c>
@@ -1916,7 +2017,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>41</v>
       </c>
@@ -1930,7 +2031,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>55</v>
       </c>
@@ -1944,7 +2045,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>55</v>
       </c>
@@ -1958,7 +2059,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>55</v>
       </c>
@@ -1972,7 +2073,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>55</v>
       </c>
@@ -1986,7 +2087,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>55</v>
       </c>
@@ -2000,7 +2101,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>61</v>
       </c>
@@ -2014,7 +2115,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>61</v>
       </c>
@@ -2028,7 +2129,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>61</v>
       </c>
@@ -2042,7 +2143,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>61</v>
       </c>
@@ -2056,7 +2157,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>61</v>
       </c>
@@ -2070,7 +2171,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>61</v>
       </c>
@@ -2084,7 +2185,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>61</v>
       </c>
@@ -2098,7 +2199,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>61</v>
       </c>
@@ -2112,7 +2213,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>61</v>
       </c>
@@ -2126,7 +2227,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>61</v>
       </c>
@@ -2140,7 +2241,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>61</v>
       </c>
@@ -2154,7 +2255,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>61</v>
       </c>
@@ -2168,7 +2269,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>61</v>
       </c>
@@ -2182,7 +2283,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>61</v>
       </c>
@@ -2196,7 +2297,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>61</v>
       </c>
@@ -2210,7 +2311,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>61</v>
       </c>
@@ -2224,7 +2325,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>79</v>
       </c>
@@ -2238,7 +2339,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>79</v>
       </c>
@@ -2252,7 +2353,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>79</v>
       </c>
@@ -2266,7 +2367,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>79</v>
       </c>
@@ -2280,7 +2381,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>79</v>
       </c>
@@ -2294,7 +2395,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>79</v>
       </c>
@@ -2308,7 +2409,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>79</v>
       </c>
@@ -2322,7 +2423,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>79</v>
       </c>
@@ -2336,7 +2437,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>88</v>
       </c>
@@ -2350,7 +2451,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>92</v>
       </c>
@@ -2364,7 +2465,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>92</v>
       </c>
@@ -2378,7 +2479,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>17</v>
       </c>
@@ -2392,7 +2493,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>17</v>
       </c>
@@ -2406,7 +2507,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>41</v>
       </c>
@@ -2420,7 +2521,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>41</v>
       </c>
@@ -2434,7 +2535,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>55</v>
       </c>
@@ -2448,7 +2549,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>79</v>
       </c>
@@ -2462,7 +2563,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>92</v>
       </c>
@@ -2476,7 +2577,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>92</v>
       </c>
@@ -2490,7 +2591,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>104</v>
       </c>
@@ -2504,7 +2605,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>104</v>
       </c>
@@ -2518,7 +2619,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>104</v>
       </c>
@@ -2532,7 +2633,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>104</v>
       </c>
@@ -2546,7 +2647,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>104</v>
       </c>
@@ -2560,7 +2661,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>104</v>
       </c>
@@ -2574,7 +2675,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>104</v>
       </c>
@@ -2588,7 +2689,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>104</v>
       </c>
@@ -2602,7 +2703,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>113</v>
       </c>
@@ -2616,7 +2717,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>113</v>
       </c>
@@ -2630,7 +2731,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>113</v>
       </c>
@@ -2644,7 +2745,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>113</v>
       </c>
@@ -2658,7 +2759,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>113</v>
       </c>
@@ -2672,7 +2773,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>113</v>
       </c>
@@ -2686,7 +2787,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>113</v>
       </c>
@@ -2700,7 +2801,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>121</v>
       </c>
@@ -2714,7 +2815,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>121</v>
       </c>
@@ -2728,7 +2829,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>121</v>
       </c>
@@ -2742,7 +2843,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>121</v>
       </c>
@@ -2756,7 +2857,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>121</v>
       </c>
@@ -2770,7 +2871,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>121</v>
       </c>
@@ -2784,7 +2885,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>121</v>
       </c>
@@ -2798,7 +2899,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>121</v>
       </c>
@@ -2812,7 +2913,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>121</v>
       </c>
@@ -2826,7 +2927,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>121</v>
       </c>
@@ -2840,7 +2941,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>121</v>
       </c>
@@ -2854,7 +2955,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>121</v>
       </c>
@@ -2868,7 +2969,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>121</v>
       </c>
@@ -2882,7 +2983,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>121</v>
       </c>
@@ -2896,7 +2997,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>121</v>
       </c>
@@ -2910,7 +3011,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>137</v>
       </c>
@@ -2924,7 +3025,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>137</v>
       </c>
@@ -2938,7 +3039,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>137</v>
       </c>
@@ -2952,7 +3053,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>137</v>
       </c>
@@ -2966,7 +3067,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>144</v>
       </c>
@@ -2980,7 +3081,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>144</v>
       </c>
@@ -2994,7 +3095,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>144</v>
       </c>
@@ -3008,7 +3109,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>144</v>
       </c>
@@ -3022,7 +3123,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>144</v>
       </c>
@@ -3036,7 +3137,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>144</v>
       </c>
@@ -3050,7 +3151,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>144</v>
       </c>
@@ -3064,7 +3165,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>144</v>
       </c>
@@ -3078,7 +3179,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>144</v>
       </c>
@@ -3092,7 +3193,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>144</v>
       </c>
@@ -3106,7 +3207,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>144</v>
       </c>
@@ -3120,7 +3221,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>144</v>
       </c>
@@ -3134,7 +3235,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>144</v>
       </c>
@@ -3148,7 +3249,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>144</v>
       </c>
@@ -3162,7 +3263,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>144</v>
       </c>
@@ -3176,7 +3277,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>144</v>
       </c>
@@ -3190,7 +3291,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>144</v>
       </c>
@@ -3204,7 +3305,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>144</v>
       </c>
@@ -3218,7 +3319,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>144</v>
       </c>
@@ -3232,7 +3333,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>144</v>
       </c>
@@ -3246,7 +3347,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>144</v>
       </c>
@@ -3260,7 +3361,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>144</v>
       </c>
@@ -3274,7 +3375,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>167</v>
       </c>
@@ -3288,7 +3389,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>167</v>
       </c>
@@ -3302,7 +3403,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>167</v>
       </c>
@@ -3316,7 +3417,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>167</v>
       </c>
@@ -3330,7 +3431,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>167</v>
       </c>
@@ -3344,7 +3445,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>167</v>
       </c>
@@ -3358,7 +3459,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>167</v>
       </c>
@@ -3372,7 +3473,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>167</v>
       </c>
@@ -3386,7 +3487,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>167</v>
       </c>
@@ -3400,7 +3501,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>167</v>
       </c>
@@ -3414,7 +3515,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>167</v>
       </c>
@@ -3428,7 +3529,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>167</v>
       </c>
@@ -3442,7 +3543,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>167</v>
       </c>
@@ -3456,7 +3557,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>167</v>
       </c>
@@ -3470,7 +3571,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>167</v>
       </c>
@@ -3484,7 +3585,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>187</v>
       </c>
@@ -3498,7 +3599,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>187</v>
       </c>
@@ -3512,7 +3613,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>187</v>
       </c>
@@ -3526,7 +3627,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>187</v>
       </c>
@@ -3540,7 +3641,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>187</v>
       </c>
@@ -3554,7 +3655,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>187</v>
       </c>
@@ -3568,7 +3669,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>194</v>
       </c>
@@ -3582,7 +3683,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>194</v>
       </c>
@@ -3596,7 +3697,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>194</v>
       </c>
@@ -3610,7 +3711,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>194</v>
       </c>
@@ -3624,7 +3725,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>194</v>
       </c>
@@ -3638,7 +3739,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>194</v>
       </c>
@@ -3652,7 +3753,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>194</v>
       </c>
@@ -3666,7 +3767,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>194</v>
       </c>
@@ -3680,7 +3781,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>194</v>
       </c>
@@ -3694,7 +3795,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>194</v>
       </c>
@@ -3708,7 +3809,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>205</v>
       </c>
@@ -3722,7 +3823,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>207</v>
       </c>
@@ -3736,7 +3837,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>207</v>
       </c>
@@ -3750,7 +3851,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>207</v>
       </c>
@@ -3764,7 +3865,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>207</v>
       </c>
@@ -3778,7 +3879,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>207</v>
       </c>
@@ -3792,7 +3893,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>213</v>
       </c>
@@ -3806,7 +3907,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>213</v>
       </c>
@@ -3820,7 +3921,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>216</v>
       </c>
@@ -3834,7 +3935,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>216</v>
       </c>
@@ -3848,7 +3949,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>216</v>
       </c>
@@ -3862,7 +3963,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>220</v>
       </c>
@@ -3876,7 +3977,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>220</v>
       </c>
@@ -3890,7 +3991,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>220</v>
       </c>
@@ -3904,7 +4005,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>220</v>
       </c>
@@ -3918,7 +4019,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>220</v>
       </c>
@@ -3932,7 +4033,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>220</v>
       </c>
@@ -3946,7 +4047,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>220</v>
       </c>
@@ -3960,7 +4061,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>220</v>
       </c>
@@ -3974,7 +4075,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>220</v>
       </c>
@@ -3988,7 +4089,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>220</v>
       </c>
@@ -4002,7 +4103,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>220</v>
       </c>
@@ -4016,7 +4117,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>233</v>
       </c>
@@ -4030,7 +4131,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>233</v>
       </c>
@@ -4044,7 +4145,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>233</v>
       </c>
@@ -4058,7 +4159,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>233</v>
       </c>
@@ -4072,7 +4173,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>233</v>
       </c>
@@ -4086,7 +4187,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>233</v>
       </c>
@@ -4100,7 +4201,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>233</v>
       </c>
@@ -4114,7 +4215,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>233</v>
       </c>
@@ -4128,7 +4229,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>242</v>
       </c>
@@ -4142,7 +4243,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="197" spans="1:4">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>242</v>
       </c>
@@ -4156,7 +4257,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>242</v>
       </c>
@@ -4170,7 +4271,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="199" spans="1:4">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>242</v>
       </c>
@@ -4184,7 +4285,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>242</v>
       </c>
@@ -4198,7 +4299,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="201" spans="1:4">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>242</v>
       </c>
@@ -4212,7 +4313,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>242</v>
       </c>
@@ -4226,7 +4327,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>242</v>
       </c>
@@ -4240,7 +4341,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>251</v>
       </c>
@@ -4254,7 +4355,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="205" spans="1:4">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>251</v>
       </c>
@@ -4268,7 +4369,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>251</v>
       </c>
@@ -4282,7 +4383,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>251</v>
       </c>
@@ -4296,7 +4397,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="208" spans="1:4">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>251</v>
       </c>
@@ -4310,7 +4411,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>251</v>
       </c>
@@ -4324,7 +4425,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="210" spans="1:4">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>251</v>
       </c>
@@ -4338,7 +4439,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>251</v>
       </c>
@@ -4352,7 +4453,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="212" spans="1:4">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>251</v>
       </c>
@@ -4366,7 +4467,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="213" spans="1:4">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>251</v>
       </c>
@@ -4380,7 +4481,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>251</v>
       </c>
@@ -4394,7 +4495,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="215" spans="1:4">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>265</v>
       </c>
@@ -4408,7 +4509,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="216" spans="1:4">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>265</v>
       </c>
@@ -4422,7 +4523,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="217" spans="1:4">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>265</v>
       </c>
@@ -4436,7 +4537,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>265</v>
       </c>
@@ -4450,7 +4551,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="219" spans="1:4">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>265</v>
       </c>
@@ -4464,7 +4565,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="220" spans="1:4">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>265</v>
       </c>
@@ -4478,7 +4579,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="221" spans="1:4">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>265</v>
       </c>
@@ -4492,7 +4593,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="222" spans="1:4">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>265</v>
       </c>
@@ -4506,7 +4607,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="223" spans="1:4">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>265</v>
       </c>
@@ -4520,7 +4621,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="224" spans="1:4">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>275</v>
       </c>
@@ -4534,7 +4635,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="225" spans="1:4">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>275</v>
       </c>
@@ -4548,7 +4649,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>275</v>
       </c>
@@ -4562,7 +4663,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="227" spans="1:4">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>275</v>
       </c>
@@ -4576,7 +4677,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="228" spans="1:4">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>275</v>
       </c>
@@ -4590,7 +4691,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="229" spans="1:4">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>275</v>
       </c>
@@ -4604,7 +4705,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>275</v>
       </c>
@@ -4618,7 +4719,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="231" spans="1:4">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>275</v>
       </c>
@@ -4632,7 +4733,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="232" spans="1:4">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>275</v>
       </c>
@@ -4646,7 +4747,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="233" spans="1:4">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>275</v>
       </c>
@@ -4660,7 +4761,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="234" spans="1:4">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>275</v>
       </c>
@@ -4674,7 +4775,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="235" spans="1:4">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>287</v>
       </c>
@@ -4688,7 +4789,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="236" spans="1:4">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>287</v>
       </c>
@@ -4702,7 +4803,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="237" spans="1:4">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>287</v>
       </c>
@@ -4716,7 +4817,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="238" spans="1:4">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>287</v>
       </c>
@@ -4730,7 +4831,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="239" spans="1:4">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>287</v>
       </c>
@@ -4744,7 +4845,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="240" spans="1:4">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>287</v>
       </c>
@@ -4758,7 +4859,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="241" spans="1:4">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>287</v>
       </c>
@@ -4772,7 +4873,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="242" spans="1:4">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>295</v>
       </c>
@@ -4786,7 +4887,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="243" spans="1:4">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>295</v>
       </c>
@@ -4800,7 +4901,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="244" spans="1:4">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>295</v>
       </c>
@@ -4814,7 +4915,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="245" spans="1:4">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>295</v>
       </c>
@@ -4828,7 +4929,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="246" spans="1:4">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>295</v>
       </c>
@@ -4842,7 +4943,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="247" spans="1:4">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>295</v>
       </c>
@@ -4856,7 +4957,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="248" spans="1:4">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>295</v>
       </c>
@@ -4870,7 +4971,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="249" spans="1:4">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>295</v>
       </c>
@@ -4884,7 +4985,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="250" spans="1:4">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>304</v>
       </c>
@@ -4898,7 +4999,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="251" spans="1:4">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>304</v>
       </c>
@@ -4912,7 +5013,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="252" spans="1:4">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>304</v>
       </c>
@@ -4926,7 +5027,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="253" spans="1:4">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>304</v>
       </c>
@@ -4940,7 +5041,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="254" spans="1:4">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>304</v>
       </c>
@@ -4954,7 +5055,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="255" spans="1:4">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>304</v>
       </c>
@@ -4968,7 +5069,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="256" spans="1:4">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>304</v>
       </c>
@@ -4982,7 +5083,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="257" spans="1:4">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>304</v>
       </c>
@@ -4996,7 +5097,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="258" spans="1:4">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>304</v>
       </c>
@@ -5010,7 +5111,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="259" spans="1:4">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>304</v>
       </c>
@@ -5024,7 +5125,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="260" spans="1:4">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>304</v>
       </c>
@@ -5038,7 +5139,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="261" spans="1:4">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>304</v>
       </c>
@@ -5052,7 +5153,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="262" spans="1:4">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>304</v>
       </c>
@@ -5066,7 +5167,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="263" spans="1:4">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>304</v>
       </c>
@@ -5080,7 +5181,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="264" spans="1:4">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>319</v>
       </c>
@@ -5094,7 +5195,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="265" spans="1:4">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>319</v>
       </c>
@@ -5108,7 +5209,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="266" spans="1:4">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>319</v>
       </c>
@@ -5122,7 +5223,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="267" spans="1:4">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>319</v>
       </c>
@@ -5142,21 +5243,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="79" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -5164,7 +5263,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="65.25" customHeight="1">
+    <row r="2" spans="1:4" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -5179,7 +5278,7 @@
         <v>update products_to_categories pc set categories_id = 87 where exists (select 1 from products p, sirdar_yarn_leaflet sl where sl.leaflet_code = p.products_model and p.products_id = pc.products_id and sl.cat = 'Babies' and sl.subcat = 'Cardigans &amp; Jackets');</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="60">
+    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -5194,7 +5293,7 @@
         <v>update products_to_categories pc set categories_id = 88 where exists (select 1 from products p, sirdar_yarn_leaflet sl where sl.leaflet_code = p.products_model and p.products_id = pc.products_id and sl.cat = 'Babies' and sl.subcat = 'Coats &amp; Ponchos');</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="60">
+    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -5209,7 +5308,7 @@
         <v>update products_to_categories pc set categories_id = 89 where exists (select 1 from products p, sirdar_yarn_leaflet sl where sl.leaflet_code = p.products_model and p.products_id = pc.products_id and sl.cat = 'Babies' and sl.subcat = 'Hats Bootees Mitts &amp; Layettes');</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="60">
+    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -5224,7 +5323,7 @@
         <v>update products_to_categories pc set categories_id = 90 where exists (select 1 from products p, sirdar_yarn_leaflet sl where sl.leaflet_code = p.products_model and p.products_id = pc.products_id and sl.cat = 'Babies' and sl.subcat = 'Shawls &amp; Blankets');</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="60">
+    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -5239,7 +5338,7 @@
         <v>update products_to_categories pc set categories_id = 91 where exists (select 1 from products p, sirdar_yarn_leaflet sl where sl.leaflet_code = p.products_model and p.products_id = pc.products_id and sl.cat = 'Babies' and sl.subcat = 'Sweaters');</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="60">
+    <row r="7" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -5254,7 +5353,7 @@
         <v>update products_to_categories pc set categories_id = 92 where exists (select 1 from products p, sirdar_yarn_leaflet sl where sl.leaflet_code = p.products_model and p.products_id = pc.products_id and sl.cat = 'Babies' and sl.subcat = 'Waistcoats &amp; Tanks');</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="60">
+    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>94</v>
       </c>
@@ -5269,7 +5368,7 @@
         <v>update products_to_categories pc set categories_id = 93 where exists (select 1 from products p, sirdar_yarn_leaflet sl where sl.leaflet_code = p.products_model and p.products_id = pc.products_id and sl.cat = 'Children' and sl.subcat = 'Cardigans');</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="60">
+    <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>94</v>
       </c>
@@ -5284,7 +5383,7 @@
         <v>update products_to_categories pc set categories_id = 94 where exists (select 1 from products p, sirdar_yarn_leaflet sl where sl.leaflet_code = p.products_model and p.products_id = pc.products_id and sl.cat = 'Children' and sl.subcat = 'Gilets &amp; Waistcoats');</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="60">
+    <row r="10" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>94</v>
       </c>
@@ -5299,7 +5398,7 @@
         <v>update products_to_categories pc set categories_id = 95 where exists (select 1 from products p, sirdar_yarn_leaflet sl where sl.leaflet_code = p.products_model and p.products_id = pc.products_id and sl.cat = 'Children' and sl.subcat = 'Scarves Hats &amp; Gloves');</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="60">
+    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>94</v>
       </c>
@@ -5314,7 +5413,7 @@
         <v>update products_to_categories pc set categories_id = 96 where exists (select 1 from products p, sirdar_yarn_leaflet sl where sl.leaflet_code = p.products_model and p.products_id = pc.products_id and sl.cat = 'Children' and sl.subcat = 'Sweaters');</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="60">
+    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>90</v>
       </c>
@@ -5329,7 +5428,7 @@
         <v>update products_to_categories pc set categories_id = 84 where exists (select 1 from products p, sirdar_yarn_leaflet sl where sl.leaflet_code = p.products_model and p.products_id = pc.products_id and sl.cat = 'Fun Knits' );</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="60">
+    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>173</v>
       </c>
@@ -5344,7 +5443,7 @@
         <v>update products_to_categories pc set categories_id = 85 where exists (select 1 from products p, sirdar_yarn_leaflet sl where sl.leaflet_code = p.products_model and p.products_id = pc.products_id and sl.cat = 'Mens' and sl.subcat = 'Sweaters');</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="60">
+    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>173</v>
       </c>
@@ -5359,7 +5458,7 @@
         <v>update products_to_categories pc set categories_id = 85 where exists (select 1 from products p, sirdar_yarn_leaflet sl where sl.leaflet_code = p.products_model and p.products_id = pc.products_id and sl.cat = 'Mens' and sl.subcat = 'Tank Tops');</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="60">
+    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>139</v>
       </c>
@@ -5374,7 +5473,7 @@
         <v>update products_to_categories pc set categories_id = 99 where exists (select 1 from products p, sirdar_yarn_leaflet sl where sl.leaflet_code = p.products_model and p.products_id = pc.products_id and sl.cat = 'Womens' and sl.subcat = 'Accessories');</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="60">
+    <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>139</v>
       </c>
@@ -5389,7 +5488,7 @@
         <v>update products_to_categories pc set categories_id = 100 where exists (select 1 from products p, sirdar_yarn_leaflet sl where sl.leaflet_code = p.products_model and p.products_id = pc.products_id and sl.cat = 'Womens' and sl.subcat = 'Cardigans');</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="60">
+    <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>139</v>
       </c>
@@ -5404,7 +5503,7 @@
         <v>update products_to_categories pc set categories_id = 101 where exists (select 1 from products p, sirdar_yarn_leaflet sl where sl.leaflet_code = p.products_model and p.products_id = pc.products_id and sl.cat = 'Womens' and sl.subcat = 'Jackets');</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="60">
+    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>139</v>
       </c>
@@ -5419,7 +5518,7 @@
         <v>update products_to_categories pc set categories_id = 102 where exists (select 1 from products p, sirdar_yarn_leaflet sl where sl.leaflet_code = p.products_model and p.products_id = pc.products_id and sl.cat = 'Womens' and sl.subcat = 'Sweaters');</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="60">
+    <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>139</v>
       </c>
@@ -5434,7 +5533,7 @@
         <v>update products_to_categories pc set categories_id = 103 where exists (select 1 from products p, sirdar_yarn_leaflet sl where sl.leaflet_code = p.products_model and p.products_id = pc.products_id and sl.cat = 'Womens' and sl.subcat = 'Tops');</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="60">
+    <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>139</v>
       </c>
@@ -5457,4 +5556,156 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="94.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C2" t="str">
+        <f>"insert into sirdar_yarn_leaflet (yarn_code, leaflet_code, leaflet_status) values ('"&amp;A2&amp;"','"&amp;B2&amp;"','EXC');"</f>
+        <v>insert into sirdar_yarn_leaflet (yarn_code, leaflet_code, leaflet_status) values ('F077','DMY-1000','EXC');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="B3" t="s">
+        <v>340</v>
+      </c>
+      <c r="C3" t="str">
+        <f>"insert into sirdar_yarn_leaflet (yarn_code, leaflet_code, leaflet_status) values ('"&amp;A3&amp;"','"&amp;B3&amp;"','EXC');"</f>
+        <v>insert into sirdar_yarn_leaflet (yarn_code, leaflet_code, leaflet_status) values ('F070','DMY-1001','EXC');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B4" t="s">
+        <v>338</v>
+      </c>
+      <c r="C4" t="str">
+        <f>"insert into sirdar_yarn_leaflet (yarn_code, leaflet_code, leaflet_status) values ('"&amp;A4&amp;"','"&amp;B4&amp;"','EXC');"</f>
+        <v>insert into sirdar_yarn_leaflet (yarn_code, leaflet_code, leaflet_status) values ('F118','DMY-1002','EXC');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="B5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C5" t="str">
+        <f>"insert into sirdar_yarn_leaflet (yarn_code, leaflet_code, leaflet_status) values ('"&amp;A5&amp;"','"&amp;B5&amp;"','EXC');"</f>
+        <v>insert into sirdar_yarn_leaflet (yarn_code, leaflet_code, leaflet_status) values ('F069','DMY-1003','EXC');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="B6" t="s">
+        <v>334</v>
+      </c>
+      <c r="C6" t="str">
+        <f>"insert into sirdar_yarn_leaflet (yarn_code, leaflet_code, leaflet_status) values ('"&amp;A6&amp;"','"&amp;B6&amp;"','EXC');"</f>
+        <v>insert into sirdar_yarn_leaflet (yarn_code, leaflet_code, leaflet_status) values ('F081','DMY-1004','EXC');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="B7" t="s">
+        <v>332</v>
+      </c>
+      <c r="C7" t="str">
+        <f>"insert into sirdar_yarn_leaflet (yarn_code, leaflet_code, leaflet_status) values ('"&amp;A7&amp;"','"&amp;B7&amp;"','EXC');"</f>
+        <v>insert into sirdar_yarn_leaflet (yarn_code, leaflet_code, leaflet_status) values ('F060','DMY-1005','EXC');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="B8" t="s">
+        <v>330</v>
+      </c>
+      <c r="C8" t="str">
+        <f>"insert into sirdar_yarn_leaflet (yarn_code, leaflet_code, leaflet_status) values ('"&amp;A8&amp;"','"&amp;B8&amp;"','EXC');"</f>
+        <v>insert into sirdar_yarn_leaflet (yarn_code, leaflet_code, leaflet_status) values ('F091','DMY-1006','EXC');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="B9" t="s">
+        <v>328</v>
+      </c>
+      <c r="C9" t="str">
+        <f>"insert into sirdar_yarn_leaflet (yarn_code, leaflet_code, leaflet_status) values ('"&amp;A9&amp;"','"&amp;B9&amp;"','EXC');"</f>
+        <v>insert into sirdar_yarn_leaflet (yarn_code, leaflet_code, leaflet_status) values ('F055','DMY-1007','EXC');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="B10" t="s">
+        <v>326</v>
+      </c>
+      <c r="C10" t="str">
+        <f>"insert into sirdar_yarn_leaflet (yarn_code, leaflet_code, leaflet_status) values ('"&amp;A10&amp;"','"&amp;B10&amp;"','EXC');"</f>
+        <v>insert into sirdar_yarn_leaflet (yarn_code, leaflet_code, leaflet_status) values ('F095','DMY-1008','EXC');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="B11" t="s">
+        <v>324</v>
+      </c>
+      <c r="C11" t="str">
+        <f>"insert into sirdar_yarn_leaflet (yarn_code, leaflet_code, leaflet_status) values ('"&amp;A11&amp;"','"&amp;B11&amp;"','EXC');"</f>
+        <v>insert into sirdar_yarn_leaflet (yarn_code, leaflet_code, leaflet_status) values ('F035','DMY-1009','EXC');</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>